--- a/2022/Symphony/JULY/05.07.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JULY/05.07.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3219,6 +3219,21 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3231,6 +3246,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3258,24 +3285,12 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3443,21 +3458,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="43" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4168,33 +4168,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="366"/>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
+      <c r="A1" s="371"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="367"/>
-      <c r="B2" s="364" t="s">
+      <c r="A2" s="372"/>
+      <c r="B2" s="369" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="367"/>
-      <c r="B3" s="365" t="s">
+      <c r="A3" s="372"/>
+      <c r="B3" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="367"/>
+      <c r="A4" s="372"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="367"/>
+      <c r="A5" s="372"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="367"/>
+      <c r="A6" s="372"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4242,7 +4242,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="367"/>
+      <c r="A7" s="372"/>
       <c r="B7" s="26" t="s">
         <v>49</v>
       </c>
@@ -4261,7 +4261,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="367"/>
+      <c r="A8" s="372"/>
       <c r="B8" s="26" t="s">
         <v>50</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="367"/>
+      <c r="A9" s="372"/>
       <c r="B9" s="26" t="s">
         <v>52</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="367"/>
+      <c r="A10" s="372"/>
       <c r="B10" s="26" t="s">
         <v>53</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="367"/>
+      <c r="A11" s="372"/>
       <c r="B11" s="26" t="s">
         <v>54</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="367"/>
+      <c r="A12" s="372"/>
       <c r="B12" s="26" t="s">
         <v>55</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="367"/>
+      <c r="A13" s="372"/>
       <c r="B13" s="26" t="s">
         <v>56</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="367"/>
+      <c r="A14" s="372"/>
       <c r="B14" s="26" t="s">
         <v>57</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="367"/>
+      <c r="A15" s="372"/>
       <c r="B15" s="26" t="s">
         <v>58</v>
       </c>
@@ -4413,7 +4413,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="367"/>
+      <c r="A16" s="372"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4426,7 +4426,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="367"/>
+      <c r="A17" s="372"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4439,7 +4439,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="367"/>
+      <c r="A18" s="372"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4452,7 +4452,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="367"/>
+      <c r="A19" s="372"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4465,7 +4465,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="367"/>
+      <c r="A20" s="372"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4478,7 +4478,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="367"/>
+      <c r="A21" s="372"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4491,7 +4491,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="367"/>
+      <c r="A22" s="372"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4504,7 +4504,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="367"/>
+      <c r="A23" s="372"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4517,7 +4517,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="367"/>
+      <c r="A24" s="372"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4530,7 +4530,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="367"/>
+      <c r="A25" s="372"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4543,7 +4543,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="367"/>
+      <c r="A26" s="372"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4556,7 +4556,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="367"/>
+      <c r="A27" s="372"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4569,7 +4569,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="367"/>
+      <c r="A28" s="372"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4582,7 +4582,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="367"/>
+      <c r="A29" s="372"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4595,7 +4595,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="367"/>
+      <c r="A30" s="372"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4608,7 +4608,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="367"/>
+      <c r="A31" s="372"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4621,7 +4621,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="367"/>
+      <c r="A32" s="372"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4634,7 +4634,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="367"/>
+      <c r="A33" s="372"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4647,7 +4647,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="367"/>
+      <c r="A34" s="372"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4660,7 +4660,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="367"/>
+      <c r="A35" s="372"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4673,7 +4673,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="367"/>
+      <c r="A36" s="372"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4686,7 +4686,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="367"/>
+      <c r="A37" s="372"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4699,7 +4699,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="367"/>
+      <c r="A38" s="372"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4712,7 +4712,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="367"/>
+      <c r="A39" s="372"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4725,7 +4725,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="367"/>
+      <c r="A40" s="372"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4738,7 +4738,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="367"/>
+      <c r="A41" s="372"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4751,7 +4751,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="367"/>
+      <c r="A42" s="372"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4764,7 +4764,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="367"/>
+      <c r="A43" s="372"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4777,7 +4777,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="367"/>
+      <c r="A44" s="372"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4790,7 +4790,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="367"/>
+      <c r="A45" s="372"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4803,7 +4803,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="367"/>
+      <c r="A46" s="372"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4816,7 +4816,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="367"/>
+      <c r="A47" s="372"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4829,7 +4829,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="367"/>
+      <c r="A48" s="372"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4842,7 +4842,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="367"/>
+      <c r="A49" s="372"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4855,7 +4855,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="367"/>
+      <c r="A50" s="372"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4868,7 +4868,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="367"/>
+      <c r="A51" s="372"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4881,7 +4881,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="367"/>
+      <c r="A52" s="372"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4894,7 +4894,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="367"/>
+      <c r="A53" s="372"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4907,7 +4907,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="367"/>
+      <c r="A54" s="372"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4920,7 +4920,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="367"/>
+      <c r="A55" s="372"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4932,7 +4932,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="367"/>
+      <c r="A56" s="372"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4944,7 +4944,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="367"/>
+      <c r="A57" s="372"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="367"/>
+      <c r="A58" s="372"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4968,7 +4968,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="367"/>
+      <c r="A59" s="372"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4980,7 +4980,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="367"/>
+      <c r="A60" s="372"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4992,7 +4992,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="367"/>
+      <c r="A61" s="372"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -5004,7 +5004,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="367"/>
+      <c r="A62" s="372"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5016,7 +5016,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="367"/>
+      <c r="A63" s="372"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5028,7 +5028,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="367"/>
+      <c r="A64" s="372"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5040,7 +5040,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="367"/>
+      <c r="A65" s="372"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5052,7 +5052,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="367"/>
+      <c r="A66" s="372"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5064,7 +5064,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="367"/>
+      <c r="A67" s="372"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5076,7 +5076,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="367"/>
+      <c r="A68" s="372"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5088,7 +5088,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="367"/>
+      <c r="A69" s="372"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5100,7 +5100,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="367"/>
+      <c r="A70" s="372"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5112,7 +5112,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="367"/>
+      <c r="A71" s="372"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5124,7 +5124,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="367"/>
+      <c r="A72" s="372"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5136,7 +5136,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="367"/>
+      <c r="A73" s="372"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5148,7 +5148,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="367"/>
+      <c r="A74" s="372"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5160,7 +5160,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="367"/>
+      <c r="A75" s="372"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5172,7 +5172,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="367"/>
+      <c r="A76" s="372"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5184,7 +5184,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="367"/>
+      <c r="A77" s="372"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5196,7 +5196,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="367"/>
+      <c r="A78" s="372"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5208,7 +5208,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="367"/>
+      <c r="A79" s="372"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5220,7 +5220,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="367"/>
+      <c r="A80" s="372"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5232,7 +5232,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="367"/>
+      <c r="A81" s="372"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5244,7 +5244,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="367"/>
+      <c r="A82" s="372"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5256,7 +5256,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="367"/>
+      <c r="A83" s="372"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5313,33 +5313,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="366"/>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="366"/>
+      <c r="A1" s="371"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="367"/>
-      <c r="B2" s="364" t="s">
+      <c r="A2" s="372"/>
+      <c r="B2" s="369" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="367"/>
-      <c r="B3" s="365" t="s">
+      <c r="A3" s="372"/>
+      <c r="B3" s="370" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="367"/>
+      <c r="A4" s="372"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5357,7 +5357,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="367"/>
+      <c r="A5" s="372"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="367"/>
+      <c r="A6" s="372"/>
       <c r="B6" s="26" t="s">
         <v>189</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="367"/>
+      <c r="A7" s="372"/>
       <c r="B7" s="26" t="s">
         <v>218</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="367"/>
+      <c r="A8" s="372"/>
       <c r="B8" s="26" t="s">
         <v>225</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="367"/>
+      <c r="A9" s="372"/>
       <c r="B9" s="26" t="s">
         <v>227</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="367"/>
+      <c r="A10" s="372"/>
       <c r="B10" s="26"/>
       <c r="C10" s="249"/>
       <c r="D10" s="249"/>
@@ -5461,7 +5461,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="367"/>
+      <c r="A11" s="372"/>
       <c r="B11" s="26"/>
       <c r="C11" s="247"/>
       <c r="D11" s="247"/>
@@ -5473,7 +5473,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="367"/>
+      <c r="A12" s="372"/>
       <c r="B12" s="26"/>
       <c r="C12" s="247"/>
       <c r="D12" s="247"/>
@@ -5485,7 +5485,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="367"/>
+      <c r="A13" s="372"/>
       <c r="B13" s="26"/>
       <c r="C13" s="247"/>
       <c r="D13" s="247"/>
@@ -5497,7 +5497,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="367"/>
+      <c r="A14" s="372"/>
       <c r="B14" s="26"/>
       <c r="C14" s="247"/>
       <c r="D14" s="247"/>
@@ -5509,7 +5509,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="367"/>
+      <c r="A15" s="372"/>
       <c r="B15" s="26"/>
       <c r="C15" s="247"/>
       <c r="D15" s="247"/>
@@ -5521,7 +5521,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="367"/>
+      <c r="A16" s="372"/>
       <c r="B16" s="26"/>
       <c r="C16" s="247"/>
       <c r="D16" s="247"/>
@@ -5533,7 +5533,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="367"/>
+      <c r="A17" s="372"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5545,7 +5545,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="367"/>
+      <c r="A18" s="372"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5557,7 +5557,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="367"/>
+      <c r="A19" s="372"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5569,7 +5569,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="367"/>
+      <c r="A20" s="372"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5581,7 +5581,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="367"/>
+      <c r="A21" s="372"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5593,7 +5593,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="367"/>
+      <c r="A22" s="372"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5605,7 +5605,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="367"/>
+      <c r="A23" s="372"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5617,7 +5617,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="367"/>
+      <c r="A24" s="372"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5629,7 +5629,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="367"/>
+      <c r="A25" s="372"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5641,7 +5641,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="367"/>
+      <c r="A26" s="372"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5653,7 +5653,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="367"/>
+      <c r="A27" s="372"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5665,7 +5665,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="367"/>
+      <c r="A28" s="372"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5677,7 +5677,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="367"/>
+      <c r="A29" s="372"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5689,7 +5689,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="367"/>
+      <c r="A30" s="372"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5701,7 +5701,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="367"/>
+      <c r="A31" s="372"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5713,7 +5713,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="367"/>
+      <c r="A32" s="372"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5725,7 +5725,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="367"/>
+      <c r="A33" s="372"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5737,7 +5737,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="367"/>
+      <c r="A34" s="372"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5749,7 +5749,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="367"/>
+      <c r="A35" s="372"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5761,7 +5761,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="367"/>
+      <c r="A36" s="372"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5773,7 +5773,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="367"/>
+      <c r="A37" s="372"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5785,7 +5785,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="367"/>
+      <c r="A38" s="372"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5797,7 +5797,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="367"/>
+      <c r="A39" s="372"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5809,7 +5809,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="367"/>
+      <c r="A40" s="372"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5821,7 +5821,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="367"/>
+      <c r="A41" s="372"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5833,7 +5833,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="367"/>
+      <c r="A42" s="372"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5845,7 +5845,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="367"/>
+      <c r="A43" s="372"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5857,7 +5857,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="367"/>
+      <c r="A44" s="372"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5869,7 +5869,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="367"/>
+      <c r="A45" s="372"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5881,7 +5881,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="367"/>
+      <c r="A46" s="372"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5893,7 +5893,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="367"/>
+      <c r="A47" s="372"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5905,7 +5905,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="367"/>
+      <c r="A48" s="372"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5917,7 +5917,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="367"/>
+      <c r="A49" s="372"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5929,7 +5929,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="367"/>
+      <c r="A50" s="372"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5941,7 +5941,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="367"/>
+      <c r="A51" s="372"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5953,7 +5953,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="367"/>
+      <c r="A52" s="372"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5965,7 +5965,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="367"/>
+      <c r="A53" s="372"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5977,7 +5977,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="367"/>
+      <c r="A54" s="372"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5989,7 +5989,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="367"/>
+      <c r="A55" s="372"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -6001,7 +6001,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="367"/>
+      <c r="A56" s="372"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -6013,7 +6013,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="367"/>
+      <c r="A57" s="372"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -6025,7 +6025,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="367"/>
+      <c r="A58" s="372"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -6037,7 +6037,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="367"/>
+      <c r="A59" s="372"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -6048,7 +6048,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="367"/>
+      <c r="A60" s="372"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -6059,7 +6059,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="367"/>
+      <c r="A61" s="372"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -6070,7 +6070,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="367"/>
+      <c r="A62" s="372"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -6081,7 +6081,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="367"/>
+      <c r="A63" s="372"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -6092,7 +6092,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="367"/>
+      <c r="A64" s="372"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -6103,7 +6103,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="367"/>
+      <c r="A65" s="372"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -6114,7 +6114,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="367"/>
+      <c r="A66" s="372"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -6125,7 +6125,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="367"/>
+      <c r="A67" s="372"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -6136,7 +6136,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="367"/>
+      <c r="A68" s="372"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -6147,7 +6147,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="367"/>
+      <c r="A69" s="372"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -6158,7 +6158,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="367"/>
+      <c r="A70" s="372"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6169,7 +6169,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="367"/>
+      <c r="A71" s="372"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6180,7 +6180,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="367"/>
+      <c r="A72" s="372"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6191,7 +6191,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="367"/>
+      <c r="A73" s="372"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6202,7 +6202,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="367"/>
+      <c r="A74" s="372"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6213,7 +6213,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="367"/>
+      <c r="A75" s="372"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6224,7 +6224,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="367"/>
+      <c r="A76" s="372"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6235,7 +6235,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="367"/>
+      <c r="A77" s="372"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6246,7 +6246,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="367"/>
+      <c r="A78" s="372"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6257,7 +6257,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="367"/>
+      <c r="A79" s="372"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6269,7 +6269,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="367"/>
+      <c r="A80" s="372"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6281,7 +6281,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="367"/>
+      <c r="A81" s="372"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6293,7 +6293,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="367"/>
+      <c r="A82" s="372"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6305,7 +6305,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="367"/>
+      <c r="A83" s="372"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6385,67 +6385,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="377" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="D1" s="377"/>
+      <c r="E1" s="377"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="377"/>
+      <c r="K1" s="377"/>
+      <c r="L1" s="377"/>
+      <c r="M1" s="377"/>
+      <c r="N1" s="377"/>
+      <c r="O1" s="377"/>
+      <c r="P1" s="377"/>
+      <c r="Q1" s="377"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="369"/>
-      <c r="Q2" s="369"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="378"/>
+      <c r="K2" s="378"/>
+      <c r="L2" s="378"/>
+      <c r="M2" s="378"/>
+      <c r="N2" s="378"/>
+      <c r="O2" s="378"/>
+      <c r="P2" s="378"/>
+      <c r="Q2" s="378"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="379" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="371"/>
-      <c r="N3" s="371"/>
-      <c r="O3" s="371"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="372"/>
+      <c r="B3" s="380"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="380"/>
+      <c r="E3" s="380"/>
+      <c r="F3" s="380"/>
+      <c r="G3" s="380"/>
+      <c r="H3" s="380"/>
+      <c r="I3" s="380"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="380"/>
+      <c r="O3" s="380"/>
+      <c r="P3" s="380"/>
+      <c r="Q3" s="381"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6454,52 +6454,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="382" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="375" t="s">
+      <c r="B4" s="384" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="373" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="377" t="s">
+      <c r="D4" s="373" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="377" t="s">
+      <c r="E4" s="373" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="377" t="s">
+      <c r="F4" s="373" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="377" t="s">
+      <c r="G4" s="373" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="377" t="s">
+      <c r="H4" s="373" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="377" t="s">
+      <c r="I4" s="373" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="377" t="s">
+      <c r="J4" s="373" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="377" t="s">
+      <c r="K4" s="373" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="377" t="s">
+      <c r="L4" s="373" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="377" t="s">
+      <c r="M4" s="373" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="377" t="s">
+      <c r="N4" s="373" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="381" t="s">
+      <c r="O4" s="375" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="379" t="s">
+      <c r="P4" s="386" t="s">
         <v>60</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6512,22 +6512,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="374"/>
-      <c r="B5" s="376"/>
-      <c r="C5" s="378"/>
-      <c r="D5" s="378"/>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="378"/>
-      <c r="K5" s="378"/>
-      <c r="L5" s="378"/>
-      <c r="M5" s="378"/>
-      <c r="N5" s="378"/>
-      <c r="O5" s="382"/>
-      <c r="P5" s="380"/>
+      <c r="A5" s="383"/>
+      <c r="B5" s="385"/>
+      <c r="C5" s="374"/>
+      <c r="D5" s="374"/>
+      <c r="E5" s="374"/>
+      <c r="F5" s="374"/>
+      <c r="G5" s="374"/>
+      <c r="H5" s="374"/>
+      <c r="I5" s="374"/>
+      <c r="J5" s="374"/>
+      <c r="K5" s="374"/>
+      <c r="L5" s="374"/>
+      <c r="M5" s="374"/>
+      <c r="N5" s="374"/>
+      <c r="O5" s="376"/>
+      <c r="P5" s="387"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -9466,6 +9466,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9482,9 +9485,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9497,8 +9497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9525,14 +9525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="391" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="388"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="393"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9626,14 +9626,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="389" t="s">
+      <c r="A2" s="394" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="391"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="396"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9727,14 +9727,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="392" t="s">
+      <c r="A3" s="397" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="393"/>
-      <c r="C3" s="393"/>
-      <c r="D3" s="393"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="394"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="399"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -13045,12 +13045,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="385" t="s">
+      <c r="B35" s="390" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="385"/>
-      <c r="D35" s="385"/>
-      <c r="E35" s="385"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="390"/>
+      <c r="E35" s="390"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -22416,11 +22416,11 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="383" t="s">
+      <c r="A119" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="384"/>
-      <c r="C119" s="395"/>
+      <c r="B119" s="389"/>
+      <c r="C119" s="400"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3095080</v>
@@ -22623,11 +22623,11 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="383" t="s">
+      <c r="A121" s="388" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="384"/>
-      <c r="C121" s="384"/>
+      <c r="B121" s="389"/>
+      <c r="C121" s="389"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3095080</v>
@@ -33863,7 +33863,7 @@
   </sheetPr>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -33883,35 +33883,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="404" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="400"/>
-      <c r="C1" s="400"/>
-      <c r="D1" s="400"/>
-      <c r="E1" s="401"/>
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="405"/>
+      <c r="E1" s="406"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="405" t="s">
+      <c r="A2" s="410" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="406"/>
-      <c r="C2" s="406"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="407"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="412"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="402" t="s">
+      <c r="A3" s="407" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="404"/>
+      <c r="B3" s="408"/>
+      <c r="C3" s="408"/>
+      <c r="D3" s="408"/>
+      <c r="E3" s="409"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33934,15 +33934,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="408" t="s">
+      <c r="A4" s="413" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="409"/>
+      <c r="B4" s="414"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="410" t="s">
+      <c r="D4" s="415" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="411"/>
+      <c r="E4" s="416"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34413,13 +34413,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="396" t="s">
+      <c r="A19" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="397"/>
-      <c r="C19" s="397"/>
-      <c r="D19" s="397"/>
-      <c r="E19" s="398"/>
+      <c r="B19" s="402"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
+      <c r="E19" s="403"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34797,17 +34797,17 @@
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" ht="21.75">
-      <c r="A32" s="439" t="s">
+      <c r="A32" s="364" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="440">
+      <c r="B32" s="365">
         <v>53000</v>
       </c>
-      <c r="C32" s="441"/>
-      <c r="D32" s="442" t="s">
+      <c r="C32" s="366"/>
+      <c r="D32" s="367" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="443">
+      <c r="E32" s="368">
         <v>150000</v>
       </c>
       <c r="G32" s="16"/>
@@ -38370,29 +38370,29 @@
   <sheetData>
     <row r="1" spans="6:10" ht="13.5" thickBot="1"/>
     <row r="2" spans="6:10" ht="27">
-      <c r="F2" s="415" t="s">
+      <c r="F2" s="420" t="s">
         <v>179</v>
       </c>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="416"/>
-      <c r="J2" s="417"/>
+      <c r="G2" s="421"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="422"/>
     </row>
     <row r="3" spans="6:10" ht="23.25">
-      <c r="F3" s="418" t="s">
+      <c r="F3" s="423" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="419"/>
-      <c r="H3" s="419"/>
-      <c r="I3" s="419"/>
-      <c r="J3" s="420"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="425"/>
     </row>
     <row r="4" spans="6:10" ht="13.5" thickBot="1">
-      <c r="F4" s="421"/>
-      <c r="G4" s="422"/>
-      <c r="H4" s="422"/>
-      <c r="I4" s="422"/>
-      <c r="J4" s="423"/>
+      <c r="F4" s="426"/>
+      <c r="G4" s="427"/>
+      <c r="H4" s="427"/>
+      <c r="I4" s="427"/>
+      <c r="J4" s="428"/>
     </row>
     <row r="5" spans="6:10" ht="15.75">
       <c r="F5" s="292" t="s">
@@ -38497,11 +38497,11 @@
       </c>
     </row>
     <row r="11" spans="6:10" ht="18.75" thickBot="1">
-      <c r="F11" s="412" t="s">
+      <c r="F11" s="417" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="413"/>
-      <c r="H11" s="414"/>
+      <c r="G11" s="418"/>
+      <c r="H11" s="419"/>
       <c r="I11" s="290">
         <f>SUM(I6:I10)</f>
         <v>145375</v>
@@ -38544,38 +38544,38 @@
   <sheetData>
     <row r="1" spans="5:9" ht="13.5" thickBot="1"/>
     <row r="2" spans="5:9" ht="23.25">
-      <c r="E2" s="424" t="s">
+      <c r="E2" s="429" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="426"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="431"/>
     </row>
     <row r="3" spans="5:9" ht="18">
-      <c r="E3" s="427" t="s">
+      <c r="E3" s="432" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="428"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
-      <c r="I3" s="429"/>
+      <c r="F3" s="433"/>
+      <c r="G3" s="433"/>
+      <c r="H3" s="433"/>
+      <c r="I3" s="434"/>
     </row>
     <row r="4" spans="5:9" ht="15">
-      <c r="E4" s="430" t="s">
+      <c r="E4" s="435" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="G4" s="431"/>
-      <c r="H4" s="431"/>
-      <c r="I4" s="432"/>
+      <c r="F4" s="436"/>
+      <c r="G4" s="436"/>
+      <c r="H4" s="436"/>
+      <c r="I4" s="437"/>
     </row>
     <row r="5" spans="5:9">
-      <c r="E5" s="433"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
-      <c r="I5" s="435"/>
+      <c r="E5" s="438"/>
+      <c r="F5" s="439"/>
+      <c r="G5" s="439"/>
+      <c r="H5" s="439"/>
+      <c r="I5" s="440"/>
     </row>
     <row r="6" spans="5:9" ht="15">
       <c r="E6" s="304" t="s">
@@ -39197,11 +39197,11 @@
       </c>
     </row>
     <row r="43" spans="5:9" ht="21" thickBot="1">
-      <c r="E43" s="436" t="s">
+      <c r="E43" s="441" t="s">
         <v>185</v>
       </c>
-      <c r="F43" s="437"/>
-      <c r="G43" s="438"/>
+      <c r="F43" s="442"/>
+      <c r="G43" s="443"/>
       <c r="H43" s="302">
         <f>SUM(H7:H42)</f>
         <v>2714565</v>
